--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/User.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết Kế Dữ Liệu/temp/User.xlsx
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -171,6 +171,10 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -218,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -231,16 +235,19 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -493,10 +500,10 @@
       <c r="A2" s="3">
         <v>1.0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -505,41 +512,41 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
     </row>
     <row r="3" ht="60.0" customHeight="1">
       <c r="A3" s="3">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -554,35 +561,35 @@
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
     </row>
     <row r="4" ht="60.0" customHeight="1">
       <c r="A4" s="3">
         <v>3.0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -597,32 +604,32 @@
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
     </row>
     <row r="5" ht="60.0" customHeight="1">
       <c r="A5" s="3">
         <v>4.0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -631,7 +638,7 @@
       <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="3">
@@ -640,32 +647,32 @@
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
     </row>
     <row r="6" ht="60.0" customHeight="1">
       <c r="A6" s="3">
         <v>5.0</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -677,38 +684,38 @@
       <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
     </row>
     <row r="7" ht="60.0" customHeight="1">
       <c r="A7" s="3">
         <v>6.0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -720,161 +727,161 @@
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
     </row>
     <row r="8" ht="60.0" customHeight="1">
       <c r="A8" s="3">
         <v>7.0</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
     </row>
     <row r="9" ht="60.0" customHeight="1">
       <c r="A9" s="3">
         <v>8.0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
     </row>
     <row r="10" ht="60.0" customHeight="1">
       <c r="A10" s="3">
         <v>9.0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
